--- a/index.xlsx
+++ b/index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Il mio Drive\Progetti\ntJobsOSai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Il mio Drive\Progetti\ntJobsAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163C22BD-87D4-4886-8D8B-CBCB6A6698C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B590B0A9-9EAB-409C-A2A9-F452F35E1F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="files" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
   <si>
     <t>NAME</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Deprecata</t>
   </si>
   <si>
-    <t xml:space="preserve">atJobs.py      </t>
-  </si>
-  <si>
     <t xml:space="preserve">acJobsApp.py   </t>
   </si>
   <si>
@@ -211,6 +208,30 @@
   </si>
   <si>
     <t>Prompt generazione ntJobsApp (Open)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aiobsOS.py      </t>
+  </si>
+  <si>
+    <t>ntj_admin.py</t>
+  </si>
+  <si>
+    <t>Comandi Vari Generici di Amministrazione</t>
+  </si>
+  <si>
+    <t>ntj_admin.cmd</t>
+  </si>
+  <si>
+    <t>admin_mirror_k.cmd</t>
+  </si>
+  <si>
+    <t>admin_mirror_git.cmd</t>
+  </si>
+  <si>
+    <t>Mirror su K: Kit aiJobs</t>
+  </si>
+  <si>
+    <t>Mirror per GITHUB: Kit aiJobs</t>
   </si>
 </sst>
 </file>
@@ -599,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1048494"/>
+  <dimension ref="A1:K1048496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -657,7 +678,7 @@
     </row>
     <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>11</v>
@@ -681,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="11">
-        <v>46017</v>
+        <v>46029</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>14</v>
@@ -689,10 +710,10 @@
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -710,7 +731,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="11">
-        <v>46017</v>
+        <v>46029</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>14</v>
@@ -742,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="11">
-        <v>46017</v>
+        <v>46029</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>14</v>
@@ -750,7 +771,7 @@
     </row>
     <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>24</v>
@@ -774,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="11">
-        <v>46017</v>
+        <v>46029</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>14</v>
@@ -782,10 +803,10 @@
     </row>
     <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -805,28 +826,26 @@
       <c r="H6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="11">
-        <v>46017</v>
-      </c>
+      <c r="I6" s="11"/>
       <c r="J6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>60</v>
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>25</v>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
@@ -837,15 +856,141 @@
       <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="11">
-        <v>46017</v>
-      </c>
+      <c r="I7" s="11"/>
       <c r="J7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="1048493" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048494" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="11">
+        <v>46029</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="11">
+        <v>46029</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="11">
+        <v>46029</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="11">
+        <v>46029</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1048495" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048496" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Il mio Drive\Progetti\ntJobsAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B590B0A9-9EAB-409C-A2A9-F452F35E1F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42407C8-283F-4AF8-A697-45171C28A28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="81">
   <si>
     <t>NAME</t>
   </si>
@@ -232,6 +232,45 @@
   </si>
   <si>
     <t>Mirror per GITHUB: Kit aiJobs</t>
+  </si>
+  <si>
+    <t>ntjobs_config.ini</t>
+  </si>
+  <si>
+    <t>Inbox</t>
+  </si>
+  <si>
+    <t>APP.CMD</t>
+  </si>
+  <si>
+    <t>Config Dati per NTJOBSOS</t>
+  </si>
+  <si>
+    <t>ntjobs_groups.csv</t>
+  </si>
+  <si>
+    <t>ntjobs_users.csv</t>
+  </si>
+  <si>
+    <t>ntjobs_actions.csv</t>
+  </si>
+  <si>
+    <t>DATI</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>Folder dove arrivano i jobs.ini e files degli utenti</t>
+  </si>
+  <si>
+    <t>Jobs Archiviati</t>
+  </si>
+  <si>
+    <t>aiJobsExtra.py</t>
+  </si>
+  <si>
+    <t>Funzioni e Classi di supporto a ntJobsOS che si appoggiano a jData per non appesantire troppo prompt principale. Anche  funzioni di Test</t>
   </si>
 </sst>
 </file>
@@ -292,7 +331,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +350,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -324,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -335,14 +380,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -359,6 +398,17 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -620,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1048496"/>
+  <dimension ref="A1:K1048497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -642,48 +692,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -701,7 +751,7 @@
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="9">
         <v>46029</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -712,14 +762,14 @@
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
@@ -730,7 +780,7 @@
       <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>46029</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -741,14 +791,14 @@
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -762,7 +812,7 @@
       <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>46029</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -773,14 +823,14 @@
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -794,7 +844,7 @@
       <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>46029</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -805,14 +855,14 @@
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -826,7 +876,7 @@
       <c r="H6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="5" t="s">
         <v>14</v>
       </c>
@@ -835,17 +885,17 @@
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
@@ -856,7 +906,7 @@
       <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="5" t="s">
         <v>14</v>
       </c>
@@ -865,14 +915,14 @@
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -886,7 +936,7 @@
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>46029</v>
       </c>
       <c r="J8" s="5" t="s">
@@ -894,63 +944,60 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="9">
+        <v>46031</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="11">
-        <v>46029</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="11">
+        <v>3</v>
+      </c>
+      <c r="I10" s="9">
         <v>46029</v>
       </c>
       <c r="J10" s="5" t="s">
@@ -959,19 +1006,19 @@
     </row>
     <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="7">
+        <v>64</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>13</v>
@@ -982,15 +1029,239 @@
       <c r="H11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="9">
         <v>46029</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="1048495" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="1048496" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048497" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1024,18 +1295,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>45474</v>
       </c>
       <c r="B2" t="s">
@@ -1046,7 +1317,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="12">
         <v>45507</v>
       </c>
       <c r="B3" t="s">
@@ -1057,7 +1328,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>45611</v>
       </c>
       <c r="B4" t="s">
@@ -1090,16 +1361,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>34</v>
       </c>
     </row>

--- a/index.xlsx
+++ b/index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Il mio Drive\Progetti\ntJobsAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42407C8-283F-4AF8-A697-45171C28A28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54222159-BE10-43FE-AB43-C7FE557C6D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="files" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="95">
   <si>
     <t>NAME</t>
   </si>
@@ -267,10 +267,52 @@
     <t>Jobs Archiviati</t>
   </si>
   <si>
-    <t>aiJobsExtra.py</t>
-  </si>
-  <si>
-    <t>Funzioni e Classi di supporto a ntJobsOS che si appoggiano a jData per non appesantire troppo prompt principale. Anche  funzioni di Test</t>
+    <t>aiJobsTest.py</t>
+  </si>
+  <si>
+    <t>Funzioni e Classi di supporto a ntJobsOS che si appoggiano a jData per  funzioni di Test</t>
+  </si>
+  <si>
+    <t>aiSysBase.py</t>
+  </si>
+  <si>
+    <t>aiSysFileio.py</t>
+  </si>
+  <si>
+    <t>aiSysConfig.py</t>
+  </si>
+  <si>
+    <t>aiSysStrings.py</t>
+  </si>
+  <si>
+    <t>aiSysTimestamp.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ncDictToString.py</t>
+  </si>
+  <si>
+    <t>ncMailSimple.py</t>
+  </si>
+  <si>
+    <t>Classe invio mail SMPT</t>
+  </si>
+  <si>
+    <t>Da Dizionario a Stringa json, xml</t>
+  </si>
+  <si>
+    <t>Gestione Timestamp</t>
+  </si>
+  <si>
+    <t>Gestione Dizionario Config</t>
+  </si>
+  <si>
+    <t>Stringhe</t>
+  </si>
+  <si>
+    <t>File Io</t>
+  </si>
+  <si>
+    <t>Dizionari e funzioni base</t>
   </si>
 </sst>
 </file>
@@ -670,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1048497"/>
+  <dimension ref="A1:K1048504"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -937,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="9">
-        <v>46029</v>
+        <v>46047</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>14</v>
@@ -945,10 +987,10 @@
     </row>
     <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -969,36 +1011,39 @@
         <v>3</v>
       </c>
       <c r="I9" s="9">
-        <v>46031</v>
+        <v>46047</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>59</v>
+      <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="9">
-        <v>46029</v>
+        <v>46047</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>14</v>
@@ -1006,10 +1051,10 @@
     </row>
     <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -1018,7 +1063,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>13</v>
@@ -1027,10 +1072,10 @@
         <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I11" s="9">
-        <v>46029</v>
+        <v>46047</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>14</v>
@@ -1038,19 +1083,19 @@
     </row>
     <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>13</v>
@@ -1059,30 +1104,30 @@
         <v>13</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I12" s="9">
-        <v>46029</v>
+        <v>46047</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>13</v>
@@ -1094,27 +1139,27 @@
         <v>3</v>
       </c>
       <c r="I13" s="9">
-        <v>46029</v>
+        <v>46047</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="3">
+        <v>87</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="6">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
@@ -1126,27 +1171,27 @@
         <v>3</v>
       </c>
       <c r="I14" s="9">
-        <v>46029</v>
+        <v>46047</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10</v>
+        <v>86</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>13</v>
@@ -1158,27 +1203,27 @@
         <v>3</v>
       </c>
       <c r="I15" s="9">
-        <v>46029</v>
+        <v>46047</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="3">
-        <v>10</v>
+        <v>79</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>13</v>
@@ -1190,36 +1235,33 @@
         <v>3</v>
       </c>
       <c r="I16" s="9">
-        <v>46029</v>
+        <v>46031</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="3">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+    <row r="17" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I17" s="9">
         <v>46029</v>
@@ -1228,21 +1270,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="3">
-        <v>10</v>
+        <v>64</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
@@ -1260,8 +1302,232 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1048496" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048497" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1048503" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048504" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Il mio Drive\Progetti\ntJobsAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54222159-BE10-43FE-AB43-C7FE557C6D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F827A3D-B18D-4078-971E-F3B22712AD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="103">
   <si>
     <t>NAME</t>
   </si>
@@ -313,6 +313,30 @@
   </si>
   <si>
     <t>Dizionari e funzioni base</t>
+  </si>
+  <si>
+    <t>admin_pytest.cmd</t>
+  </si>
+  <si>
+    <t>Esecuione test</t>
+  </si>
+  <si>
+    <t>ntjobs_billing.csv</t>
+  </si>
+  <si>
+    <t>Biling file di esecuzione jobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acJobsOS.py   </t>
+  </si>
+  <si>
+    <t>Classe principale acJobsOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aiobsJobsJobs.py      </t>
+  </si>
+  <si>
+    <t>SubClasse JobsOS.Jobs</t>
   </si>
 </sst>
 </file>
@@ -712,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1048504"/>
+  <dimension ref="A1:K1048508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -801,26 +825,29 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
+      <c r="A3" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="3">
+        <v>102</v>
+      </c>
+      <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I3" s="9">
         <v>46029</v>
@@ -830,61 +857,32 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="9">
-        <v>46029</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I5" s="9">
         <v>46029</v>
@@ -895,49 +893,51 @@
     </row>
     <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9">
+        <v>46029</v>
+      </c>
       <c r="J6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
@@ -948,23 +948,25 @@
       <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9">
+        <v>46029</v>
+      </c>
       <c r="J7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -979,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="9">
-        <v>46047</v>
+        <v>46059</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>14</v>
@@ -987,16 +989,16 @@
     </row>
     <row r="9" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -1010,28 +1012,26 @@
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="9">
-        <v>46047</v>
-      </c>
+      <c r="I9" s="9"/>
       <c r="J9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>13</v>
@@ -1042,19 +1042,17 @@
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="9">
-        <v>46047</v>
-      </c>
+      <c r="I10" s="9"/>
       <c r="J10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -1083,10 +1081,10 @@
     </row>
     <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -1115,10 +1113,10 @@
     </row>
     <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -1147,10 +1145,10 @@
     </row>
     <row r="14" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -1179,10 +1177,10 @@
     </row>
     <row r="15" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -1211,10 +1209,10 @@
     </row>
     <row r="16" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
@@ -1235,36 +1233,39 @@
         <v>3</v>
       </c>
       <c r="I16" s="9">
-        <v>46031</v>
+        <v>46047</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>59</v>
+      <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="9">
-        <v>46029</v>
+        <v>46047</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>14</v>
@@ -1272,10 +1273,10 @@
     </row>
     <row r="18" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -1284,7 +1285,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
@@ -1293,10 +1294,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I18" s="9">
-        <v>46029</v>
+        <v>46047</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>14</v>
@@ -1304,19 +1305,19 @@
     </row>
     <row r="19" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>13</v>
@@ -1325,36 +1326,33 @@
         <v>13</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I19" s="9">
-        <v>46029</v>
+        <v>46031</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="3">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+    <row r="20" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1366,21 +1364,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="3">
+        <v>64</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="6">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>13</v>
@@ -1389,7 +1387,7 @@
         <v>13</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9">
         <v>46029</v>
@@ -1398,21 +1396,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>13</v>
@@ -1421,7 +1419,7 @@
         <v>13</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9">
         <v>46029</v>
@@ -1432,7 +1430,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>71</v>
@@ -1464,19 +1462,19 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C24" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>13</v>
@@ -1485,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I24" s="9">
         <v>46029</v>
@@ -1496,10 +1494,10 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C25" s="3">
         <v>10</v>
@@ -1508,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>13</v>
@@ -1517,7 +1515,7 @@
         <v>13</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I25" s="9">
         <v>46029</v>
@@ -1526,8 +1524,168 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1048503" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048504" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="9">
+        <v>46059</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="3">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="3">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="9">
+        <v>46029</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="9">
+        <v>46059</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1048507" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048508" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
